--- a/hw4/sbdata.xlsx
+++ b/hw4/sbdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuyang/projects/distributed_and_PC/hw4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6033DE2-B5EA-224B-AB02-D17A2D08A5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802009B4-BB1A-264F-B5C2-509745388CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13520" windowHeight="18000" xr2:uid="{129C8AE0-54FF-4645-B4D9-1E3DD2DEE969}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="17040" xr2:uid="{129C8AE0-54FF-4645-B4D9-1E3DD2DEE969}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,6 +143,3980 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>50 * 50</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45543548936732203"/>
+          <c:y val="4.1666763193775727E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.26E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7899999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.55E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1199999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.62E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6600000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0500000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8100000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9ED4-A646-BC49-08A8EF27045B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pthread-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9ED4-A646-BC49-08A8EF27045B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openmp-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2700000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.14E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9ED4-A646-BC49-08A8EF27045B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="538317615"/>
+        <c:axId val="538319247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538317615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538319247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538319247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538317615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>200</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> * 200</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi-200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.28299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-71D8-CC44-A714-6338D9723D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pthread-200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-71D8-CC44-A714-6338D9723D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openmp-200</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8900000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5600000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.8E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-71D8-CC44-A714-6338D9723D72}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="478860143"/>
+        <c:axId val="479164655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="478860143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="479164655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="479164655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478860143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>1000</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> * 1000</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33617002646060046"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mpi-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.6399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A349-FB4D-A484-E39684295B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pthread-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.55300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A349-FB4D-A484-E39684295B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>openmp-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1259999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0762999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-A349-FB4D-A484-E39684295B96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="538100367"/>
+        <c:axId val="483684383"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="538100367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483684383"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="483684383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538100367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>405548</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>128067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1067227</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>160297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56ECEDE4-861E-8640-9B78-E4EF3FBFFC6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120597</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>21344</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>192315</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327B40D0-7E22-4341-9193-0E2DDDF83D26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>216647</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309496</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>21557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F23B18-F14A-C64D-A243-7C1BFCA36DBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -444,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5B53F2-73F3-C545-831E-4910FD22068F}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,6 +4494,9 @@
       <c r="L2">
         <v>0.28899999999999998</v>
       </c>
+      <c r="M2">
+        <v>8.8699999999999992</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
@@ -549,6 +4526,9 @@
       <c r="L3">
         <v>0.29899999999999999</v>
       </c>
+      <c r="M3">
+        <v>9.4589999999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
@@ -578,6 +4558,9 @@
       <c r="L4">
         <v>0.41</v>
       </c>
+      <c r="M4">
+        <v>9.0399999999999991</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
@@ -607,6 +4590,9 @@
       <c r="L5">
         <v>0.28699999999999998</v>
       </c>
+      <c r="M5">
+        <v>9.0030000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
@@ -636,6 +4622,9 @@
       <c r="L6">
         <v>0.28199999999999997</v>
       </c>
+      <c r="M6">
+        <v>9.1259999999999994</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
@@ -665,6 +4654,9 @@
       <c r="L7">
         <v>0.32200000000000001</v>
       </c>
+      <c r="M7">
+        <v>9.0762999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
@@ -694,6 +4686,9 @@
       <c r="L8">
         <v>0.36699999999999999</v>
       </c>
+      <c r="M8">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
@@ -723,6 +4718,9 @@
       <c r="L9">
         <v>6.8900000000000003E-2</v>
       </c>
+      <c r="M9">
+        <v>1.577</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
@@ -752,6 +4750,9 @@
       <c r="L10">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="M10">
+        <v>1.8460000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
@@ -781,6 +4782,9 @@
       <c r="L11">
         <v>0.06</v>
       </c>
+      <c r="M11">
+        <v>1.893</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
@@ -810,6 +4814,9 @@
       <c r="L12">
         <v>5.8000000000000003E-2</v>
       </c>
+      <c r="M12">
+        <v>2.0529999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
@@ -839,6 +4846,9 @@
       <c r="L13">
         <v>6.5600000000000006E-2</v>
       </c>
+      <c r="M13">
+        <v>1.8680000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
@@ -868,6 +4878,9 @@
       <c r="L14">
         <v>7.8E-2</v>
       </c>
+      <c r="M14">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15">
@@ -897,6 +4910,9 @@
       <c r="L15">
         <v>8.8999999999999996E-2</v>
       </c>
+      <c r="M15">
+        <v>1.9079999999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16">
@@ -926,8 +4942,11 @@
       <c r="L16">
         <v>8.3000000000000004E-2</v>
       </c>
+      <c r="M16">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>16</v>
       </c>
@@ -954,11 +4973,15 @@
       </c>
       <c r="L17">
         <v>0.13</v>
+      </c>
+      <c r="M17">
+        <v>1.893</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>